--- a/public/output/personel-29/پرسنل29_فروردین_1400.xlsx
+++ b/public/output/personel-29/پرسنل29_فروردین_1400.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="331">
   <si>
     <t>ردیف</t>
   </si>
@@ -41,9 +41,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>مجموع ماه</t>
-  </si>
-  <si>
     <t>روز</t>
   </si>
   <si>
@@ -71,13 +68,13 @@
     <t>1400/1/1</t>
   </si>
   <si>
-    <t>0:0:0</t>
+    <t>00:00:00</t>
   </si>
   <si>
     <t>غیبت (ساعتی)</t>
   </si>
   <si>
-    <t>7:30:0</t>
+    <t>07:30:00</t>
   </si>
   <si>
     <t>دوشنبه</t>
@@ -104,6 +101,9 @@
     <t>1400/1/5</t>
   </si>
   <si>
+    <t>تعطیل</t>
+  </si>
+  <si>
     <t>جمعه</t>
   </si>
   <si>
@@ -143,13 +143,13 @@
     <t>1400/1/11</t>
   </si>
   <si>
-    <t>0:0:30</t>
-  </si>
-  <si>
-    <t>0:15:14</t>
-  </si>
-  <si>
-    <t>7:29:30</t>
+    <t>00:00:30</t>
+  </si>
+  <si>
+    <t>00:15:14</t>
+  </si>
+  <si>
+    <t>07:29:30</t>
   </si>
   <si>
     <t>1400/1/12</t>
@@ -161,25 +161,25 @@
     <t>2</t>
   </si>
   <si>
-    <t>7:57:14</t>
-  </si>
-  <si>
-    <t>9:8:11</t>
+    <t>07:57:14</t>
+  </si>
+  <si>
+    <t>09:08:11</t>
   </si>
   <si>
     <t>1400/1/14</t>
   </si>
   <si>
-    <t>1:10:57</t>
-  </si>
-  <si>
-    <t>9:54:6</t>
+    <t>01:10:57</t>
+  </si>
+  <si>
+    <t>09:54:06</t>
   </si>
   <si>
     <t>12:41:51</t>
   </si>
   <si>
-    <t>2:47:45</t>
+    <t>02:47:45</t>
   </si>
   <si>
     <t>12:42:17</t>
@@ -188,7 +188,7 @@
     <t>12:42:19</t>
   </si>
   <si>
-    <t>0:0:2</t>
+    <t>00:00:02</t>
   </si>
   <si>
     <t>5</t>
@@ -200,7 +200,7 @@
     <t>12:42:44</t>
   </si>
   <si>
-    <t>0:0:5</t>
+    <t>00:00:05</t>
   </si>
   <si>
     <t>6</t>
@@ -212,100 +212,100 @@
     <t>14:28:30</t>
   </si>
   <si>
-    <t>1:37:47</t>
+    <t>01:37:47</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>14:29:7</t>
+    <t>14:29:07</t>
   </si>
   <si>
     <t>17:31:46</t>
   </si>
   <si>
-    <t>3:2:39</t>
-  </si>
-  <si>
-    <t>8:39:15</t>
-  </si>
-  <si>
-    <t>9:34:32</t>
-  </si>
-  <si>
-    <t>9:1:46</t>
+    <t>03:02:39</t>
+  </si>
+  <si>
+    <t>08:39:15</t>
+  </si>
+  <si>
+    <t>09:34:32</t>
+  </si>
+  <si>
+    <t>09:01:46</t>
   </si>
   <si>
     <t>حضور</t>
   </si>
   <si>
-    <t>0:1:46</t>
+    <t>01:09:15</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>7:23:56</t>
-  </si>
-  <si>
-    <t>8:37:18</t>
+    <t>07:23:56</t>
+  </si>
+  <si>
+    <t>08:37:18</t>
   </si>
   <si>
     <t>1400/1/15</t>
   </si>
   <si>
-    <t>1:13:22</t>
+    <t>01:13:22</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>8:47:20</t>
-  </si>
-  <si>
-    <t>11:4:53</t>
-  </si>
-  <si>
-    <t>2:17:33</t>
-  </si>
-  <si>
-    <t>3:30:55</t>
-  </si>
-  <si>
-    <t>3:40:57</t>
-  </si>
-  <si>
-    <t>2:34:53</t>
-  </si>
-  <si>
-    <t>3:59:5</t>
+    <t>08:47:20</t>
+  </si>
+  <si>
+    <t>11:04:53</t>
+  </si>
+  <si>
+    <t>02:17:33</t>
+  </si>
+  <si>
+    <t>03:30:55</t>
+  </si>
+  <si>
+    <t>03:40:57</t>
+  </si>
+  <si>
+    <t>02:34:53</t>
+  </si>
+  <si>
+    <t>03:59:05</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>8:39:6</t>
-  </si>
-  <si>
-    <t>9:43:49</t>
+    <t>08:39:06</t>
+  </si>
+  <si>
+    <t>09:43:49</t>
   </si>
   <si>
     <t>1400/1/16</t>
   </si>
   <si>
-    <t>1:4:43</t>
+    <t>01:04:43</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>9:58:1</t>
+    <t>09:58:01</t>
   </si>
   <si>
     <t>16:31:42</t>
   </si>
   <si>
-    <t>6:33:41</t>
+    <t>06:33:41</t>
   </si>
   <si>
     <t>12</t>
@@ -314,10 +314,10 @@
     <t>16:33:35</t>
   </si>
   <si>
-    <t>17:35:9</t>
-  </si>
-  <si>
-    <t>1:1:34</t>
+    <t>17:35:09</t>
+  </si>
+  <si>
+    <t>01:01:34</t>
   </si>
   <si>
     <t>13</t>
@@ -329,43 +329,43 @@
     <t>18:56:57</t>
   </si>
   <si>
-    <t>0:5:28</t>
-  </si>
-  <si>
-    <t>8:45:26</t>
+    <t>00:05:28</t>
+  </si>
+  <si>
+    <t>08:45:26</t>
   </si>
   <si>
     <t>10:17:51</t>
   </si>
   <si>
-    <t>1:17:51</t>
+    <t>01:15:26</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>9:37:27</t>
-  </si>
-  <si>
-    <t>9:39:54</t>
+    <t>09:37:27</t>
+  </si>
+  <si>
+    <t>09:39:54</t>
   </si>
   <si>
     <t>1400/1/17</t>
   </si>
   <si>
-    <t>0:2:27</t>
+    <t>00:02:27</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>10:5:58</t>
+    <t>10:05:58</t>
   </si>
   <si>
     <t>11:39:43</t>
   </si>
   <si>
-    <t>1:33:45</t>
+    <t>01:33:45</t>
   </si>
   <si>
     <t>16</t>
@@ -374,10 +374,10 @@
     <t>11:44:18</t>
   </si>
   <si>
-    <t>14:31:6</t>
-  </si>
-  <si>
-    <t>2:46:48</t>
+    <t>14:31:06</t>
+  </si>
+  <si>
+    <t>02:46:48</t>
   </si>
   <si>
     <t>17</t>
@@ -386,37 +386,37 @@
     <t>15:16:50</t>
   </si>
   <si>
-    <t>18:20:3</t>
-  </si>
-  <si>
-    <t>3:3:13</t>
+    <t>18:20:03</t>
+  </si>
+  <si>
+    <t>03:03:13</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>19:9:34</t>
+    <t>19:09:34</t>
   </si>
   <si>
     <t>19:20:46</t>
   </si>
   <si>
-    <t>0:11:12</t>
-  </si>
-  <si>
-    <t>7:37:25</t>
-  </si>
-  <si>
-    <t>9:43:19</t>
-  </si>
-  <si>
-    <t>0:43:19</t>
+    <t>00:11:12</t>
+  </si>
+  <si>
+    <t>07:37:25</t>
+  </si>
+  <si>
+    <t>09:43:19</t>
+  </si>
+  <si>
+    <t>00:07:25</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>9:26:51</t>
+    <t>09:26:51</t>
   </si>
   <si>
     <t>10:16:31</t>
@@ -425,40 +425,40 @@
     <t>1400/1/18</t>
   </si>
   <si>
-    <t>0:49:40</t>
+    <t>00:49:40</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>10:55:9</t>
+    <t>10:55:09</t>
   </si>
   <si>
     <t>14:20:42</t>
   </si>
   <si>
-    <t>3:25:33</t>
+    <t>03:25:33</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>15:32:8</t>
-  </si>
-  <si>
-    <t>18:47:9</t>
-  </si>
-  <si>
-    <t>3:15:1</t>
-  </si>
-  <si>
-    <t>7:30:14</t>
-  </si>
-  <si>
-    <t>9:20:18</t>
-  </si>
-  <si>
-    <t>0:20:18</t>
+    <t>15:32:08</t>
+  </si>
+  <si>
+    <t>18:47:09</t>
+  </si>
+  <si>
+    <t>03:15:01</t>
+  </si>
+  <si>
+    <t>07:30:14</t>
+  </si>
+  <si>
+    <t>09:20:18</t>
+  </si>
+  <si>
+    <t>00:00:14</t>
   </si>
   <si>
     <t>1400/1/19</t>
@@ -470,28 +470,28 @@
     <t>22</t>
   </si>
   <si>
-    <t>8:28:54</t>
-  </si>
-  <si>
-    <t>12:4:37</t>
+    <t>08:28:54</t>
+  </si>
+  <si>
+    <t>12:04:37</t>
   </si>
   <si>
     <t>1400/1/21</t>
   </si>
   <si>
-    <t>3:35:43</t>
+    <t>03:35:43</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>12:6:35</t>
+    <t>12:06:35</t>
   </si>
   <si>
     <t>12:58:19</t>
   </si>
   <si>
-    <t>0:51:44</t>
+    <t>00:51:44</t>
   </si>
   <si>
     <t>24</t>
@@ -503,7 +503,7 @@
     <t>17:54:57</t>
   </si>
   <si>
-    <t>4:26:24</t>
+    <t>04:26:24</t>
   </si>
   <si>
     <t>25</t>
@@ -512,10 +512,10 @@
     <t>17:55:59</t>
   </si>
   <si>
-    <t>18:1:1</t>
-  </si>
-  <si>
-    <t>0:5:2</t>
+    <t>18:01:01</t>
+  </si>
+  <si>
+    <t>00:05:02</t>
   </si>
   <si>
     <t>26</t>
@@ -524,28 +524,28 @@
     <t>18:40:11</t>
   </si>
   <si>
-    <t>18:48:7</t>
-  </si>
-  <si>
-    <t>0:7:56</t>
-  </si>
-  <si>
-    <t>9:6:49</t>
+    <t>18:48:07</t>
+  </si>
+  <si>
+    <t>00:07:56</t>
+  </si>
+  <si>
+    <t>09:06:49</t>
   </si>
   <si>
     <t>10:19:13</t>
   </si>
   <si>
-    <t>10:18:7</t>
-  </si>
-  <si>
-    <t>1:18:7</t>
+    <t>10:18:07</t>
+  </si>
+  <si>
+    <t>01:36:49</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>9:30:7</t>
+    <t>09:30:07</t>
   </si>
   <si>
     <t>12:14:57</t>
@@ -554,7 +554,7 @@
     <t>1400/1/22</t>
   </si>
   <si>
-    <t>2:44:50</t>
+    <t>02:44:50</t>
   </si>
   <si>
     <t>28</t>
@@ -566,7 +566,7 @@
     <t>14:18:57</t>
   </si>
   <si>
-    <t>1:24:4</t>
+    <t>01:24:04</t>
   </si>
   <si>
     <t>29</t>
@@ -578,7 +578,7 @@
     <t>15:17:42</t>
   </si>
   <si>
-    <t>0:23:44</t>
+    <t>00:23:44</t>
   </si>
   <si>
     <t>30</t>
@@ -590,7 +590,7 @@
     <t>16:22:15</t>
   </si>
   <si>
-    <t>0:53:37</t>
+    <t>00:53:37</t>
   </si>
   <si>
     <t>31</t>
@@ -599,10 +599,10 @@
     <t>16:59:35</t>
   </si>
   <si>
-    <t>18:8:51</t>
-  </si>
-  <si>
-    <t>1:9:16</t>
+    <t>18:08:51</t>
+  </si>
+  <si>
+    <t>01:09:16</t>
   </si>
   <si>
     <t>32</t>
@@ -611,25 +611,25 @@
     <t>18:56:18</t>
   </si>
   <si>
-    <t>19:31:9</t>
-  </si>
-  <si>
-    <t>0:34:51</t>
-  </si>
-  <si>
-    <t>7:10:22</t>
-  </si>
-  <si>
-    <t>10:1:2</t>
-  </si>
-  <si>
-    <t>0:19:38</t>
+    <t>19:31:09</t>
+  </si>
+  <si>
+    <t>00:34:51</t>
+  </si>
+  <si>
+    <t>07:10:22</t>
+  </si>
+  <si>
+    <t>10:01:02</t>
+  </si>
+  <si>
+    <t>00:19:38</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>9:57:10</t>
+    <t>09:57:10</t>
   </si>
   <si>
     <t>13:29:45</t>
@@ -638,7 +638,7 @@
     <t>1400/1/23</t>
   </si>
   <si>
-    <t>3:32:35</t>
+    <t>03:32:35</t>
   </si>
   <si>
     <t>34</t>
@@ -650,7 +650,7 @@
     <t>17:18:41</t>
   </si>
   <si>
-    <t>3:21:47</t>
+    <t>03:21:47</t>
   </si>
   <si>
     <t>35</t>
@@ -662,31 +662,31 @@
     <t>17:35:33</t>
   </si>
   <si>
-    <t>0:11:17</t>
+    <t>00:11:17</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>18:1:11</t>
+    <t>18:01:11</t>
   </si>
   <si>
     <t>18:41:58</t>
   </si>
   <si>
-    <t>0:40:47</t>
-  </si>
-  <si>
-    <t>7:46:26</t>
-  </si>
-  <si>
-    <t>8:44:48</t>
+    <t>00:40:47</t>
+  </si>
+  <si>
+    <t>07:46:26</t>
+  </si>
+  <si>
+    <t>08:44:48</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>9:46:34</t>
+    <t>09:46:34</t>
   </si>
   <si>
     <t>13:23:35</t>
@@ -695,7 +695,7 @@
     <t>1400/1/24</t>
   </si>
   <si>
-    <t>3:37:1</t>
+    <t>03:37:01</t>
   </si>
   <si>
     <t>38</t>
@@ -707,55 +707,55 @@
     <t>14:28:59</t>
   </si>
   <si>
-    <t>0:42:13</t>
+    <t>00:42:13</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>15:4:14</t>
+    <t>15:04:14</t>
   </si>
   <si>
     <t>17:32:16</t>
   </si>
   <si>
-    <t>2:28:2</t>
+    <t>02:28:02</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>18:26:8</t>
+    <t>18:26:08</t>
   </si>
   <si>
     <t>18:55:47</t>
   </si>
   <si>
-    <t>0:29:39</t>
-  </si>
-  <si>
-    <t>7:16:55</t>
-  </si>
-  <si>
-    <t>9:9:13</t>
-  </si>
-  <si>
-    <t>0:13:5</t>
+    <t>00:29:39</t>
+  </si>
+  <si>
+    <t>07:16:55</t>
+  </si>
+  <si>
+    <t>09:09:13</t>
+  </si>
+  <si>
+    <t>00:13:05</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>9:47:1</t>
-  </si>
-  <si>
-    <t>11:7:40</t>
+    <t>09:47:01</t>
+  </si>
+  <si>
+    <t>11:07:40</t>
   </si>
   <si>
     <t>1400/1/25</t>
   </si>
   <si>
-    <t>1:20:39</t>
+    <t>01:20:39</t>
   </si>
   <si>
     <t>42</t>
@@ -764,43 +764,43 @@
     <t>11:37:47</t>
   </si>
   <si>
-    <t>14:0:50</t>
-  </si>
-  <si>
-    <t>2:23:3</t>
+    <t>14:00:50</t>
+  </si>
+  <si>
+    <t>02:23:03</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>14:28:3</t>
+    <t>14:28:03</t>
   </si>
   <si>
     <t>17:42:44</t>
   </si>
   <si>
-    <t>3:14:41</t>
+    <t>03:14:41</t>
   </si>
   <si>
     <t>44</t>
   </si>
   <si>
-    <t>18:33:5</t>
+    <t>18:33:05</t>
   </si>
   <si>
     <t>19:15:28</t>
   </si>
   <si>
-    <t>0:42:23</t>
-  </si>
-  <si>
-    <t>7:40:46</t>
-  </si>
-  <si>
-    <t>9:28:44</t>
-  </si>
-  <si>
-    <t>0:28:44</t>
+    <t>00:42:23</t>
+  </si>
+  <si>
+    <t>07:40:46</t>
+  </si>
+  <si>
+    <t>09:28:44</t>
+  </si>
+  <si>
+    <t>00:10:46</t>
   </si>
   <si>
     <t>1400/1/26</t>
@@ -812,7 +812,7 @@
     <t>45</t>
   </si>
   <si>
-    <t>9:44:30</t>
+    <t>09:44:30</t>
   </si>
   <si>
     <t>13:20:47</t>
@@ -821,7 +821,7 @@
     <t>1400/1/28</t>
   </si>
   <si>
-    <t>3:36:17</t>
+    <t>03:36:17</t>
   </si>
   <si>
     <t>46</t>
@@ -833,7 +833,7 @@
     <t>16:29:19</t>
   </si>
   <si>
-    <t>2:48:45</t>
+    <t>02:48:45</t>
   </si>
   <si>
     <t>47</t>
@@ -845,16 +845,16 @@
     <t>18:15:18</t>
   </si>
   <si>
-    <t>0:55:30</t>
-  </si>
-  <si>
-    <t>7:20:32</t>
-  </si>
-  <si>
-    <t>8:30:48</t>
-  </si>
-  <si>
-    <t>0:9:28</t>
+    <t>00:55:30</t>
+  </si>
+  <si>
+    <t>07:20:32</t>
+  </si>
+  <si>
+    <t>08:30:48</t>
+  </si>
+  <si>
+    <t>00:09:28</t>
   </si>
   <si>
     <t>1400/1/29</t>
@@ -863,7 +863,7 @@
     <t>48</t>
   </si>
   <si>
-    <t>9:9:48</t>
+    <t>09:09:48</t>
   </si>
   <si>
     <t>11:15:36</t>
@@ -872,19 +872,19 @@
     <t>1400/1/30</t>
   </si>
   <si>
-    <t>2:5:48</t>
+    <t>02:05:48</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
-    <t>12:0:46</t>
-  </si>
-  <si>
-    <t>14:33:0</t>
-  </si>
-  <si>
-    <t>2:32:14</t>
+    <t>12:00:46</t>
+  </si>
+  <si>
+    <t>14:33:00</t>
+  </si>
+  <si>
+    <t>02:32:14</t>
   </si>
   <si>
     <t>50</t>
@@ -896,7 +896,7 @@
     <t>15:40:27</t>
   </si>
   <si>
-    <t>0:45:45</t>
+    <t>00:45:45</t>
   </si>
   <si>
     <t>51</t>
@@ -908,22 +908,22 @@
     <t>19:35:12</t>
   </si>
   <si>
-    <t>2:14:41</t>
-  </si>
-  <si>
-    <t>7:38:28</t>
+    <t>02:14:41</t>
+  </si>
+  <si>
+    <t>07:38:28</t>
   </si>
   <si>
     <t>10:25:24</t>
   </si>
   <si>
-    <t>1:25:24</t>
+    <t>00:08:28</t>
   </si>
   <si>
     <t>52</t>
   </si>
   <si>
-    <t>9:48:9</t>
+    <t>09:48:09</t>
   </si>
   <si>
     <t>13:26:15</t>
@@ -932,7 +932,7 @@
     <t>1400/1/31</t>
   </si>
   <si>
-    <t>3:38:6</t>
+    <t>03:38:06</t>
   </si>
   <si>
     <t>53</t>
@@ -944,31 +944,31 @@
     <t>13:30:50</t>
   </si>
   <si>
-    <t>0:1:3</t>
+    <t>00:01:03</t>
   </si>
   <si>
     <t>54</t>
   </si>
   <si>
-    <t>14:4:4</t>
+    <t>14:04:04</t>
   </si>
   <si>
     <t>14:58:25</t>
   </si>
   <si>
-    <t>0:54:21</t>
+    <t>00:54:21</t>
   </si>
   <si>
     <t>55</t>
   </si>
   <si>
-    <t>15:8:15</t>
+    <t>15:08:15</t>
   </si>
   <si>
     <t>16:56:46</t>
   </si>
   <si>
-    <t>1:48:31</t>
+    <t>01:48:31</t>
   </si>
   <si>
     <t>56</t>
@@ -977,22 +977,34 @@
     <t>17:24:32</t>
   </si>
   <si>
-    <t>18:15:9</t>
-  </si>
-  <si>
-    <t>0:50:37</t>
-  </si>
-  <si>
-    <t>7:12:38</t>
-  </si>
-  <si>
-    <t>8:27:0</t>
-  </si>
-  <si>
-    <t>0:17:22</t>
+    <t>18:15:09</t>
+  </si>
+  <si>
+    <t>00:50:37</t>
+  </si>
+  <si>
+    <t>07:12:38</t>
+  </si>
+  <si>
+    <t>08:27:00</t>
+  </si>
+  <si>
+    <t>00:17:22</t>
+  </si>
+  <si>
+    <t>مجموع</t>
   </si>
   <si>
     <t>97:16:41</t>
+  </si>
+  <si>
+    <t>116:18:27</t>
+  </si>
+  <si>
+    <t>04:28:23</t>
+  </si>
+  <si>
+    <t>79:58:08</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1014,7 @@
   <numFmts count="1">
     <numFmt formatCode="$#,##0.00; ($#,##0.00); -" numFmtId="164"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1030,6 +1042,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFAA0000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1063,12 +1081,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="2" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="3" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="4" applyNumberFormat="1" numFmtId="164"/>
+    <xf applyFont="1" fontId="5" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="1" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="164"/>
   </cellXfs>
@@ -1077,13 +1096,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1111,27 +1130,24 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1143,27 +1159,24 @@
       <c r="I2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>326</v>
-      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1171,22 +1184,22 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1194,22 +1207,22 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1217,22 +1230,22 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1240,22 +1253,22 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1263,22 +1276,22 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1292,22 +1305,22 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1315,22 +1328,22 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1344,22 +1357,22 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1367,22 +1380,22 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1390,22 +1403,22 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1413,22 +1426,22 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1442,22 +1455,22 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>112</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1465,22 +1478,22 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="B16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>112</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1488,22 +1501,22 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="B17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>112</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1511,22 +1524,22 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="B18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="6" t="s">
         <v>112</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1534,22 +1547,22 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>112</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1563,22 +1576,22 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>136</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1586,22 +1599,22 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="7" t="s">
         <v>136</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1609,22 +1622,22 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>136</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -1638,22 +1651,22 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="6" t="s">
         <v>154</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1661,22 +1674,22 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="6" t="s">
         <v>154</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -1684,22 +1697,22 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="B25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="6" t="s">
         <v>154</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -1707,22 +1720,22 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="B26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="6" t="s">
         <v>154</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -1730,22 +1743,22 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="6" t="s">
         <v>154</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -1759,22 +1772,22 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="7" t="s">
         <v>179</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -1782,22 +1795,22 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="B29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="7" t="s">
         <v>179</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -1805,22 +1818,22 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="B30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="7" t="s">
         <v>179</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -1828,22 +1841,22 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="B31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="7" t="s">
         <v>179</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -1851,22 +1864,22 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="B32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="7" t="s">
         <v>179</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -1874,22 +1887,22 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="7" t="s">
         <v>179</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -1903,22 +1916,22 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="6" t="s">
         <v>207</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -1926,22 +1939,22 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="B35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="6" t="s">
         <v>207</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -1949,22 +1962,22 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="6" t="s">
         <v>207</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -1972,22 +1985,22 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="B37" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="6" t="s">
         <v>207</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2001,22 +2014,22 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="C38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="7" t="s">
         <v>226</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -2024,22 +2037,22 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="B39" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="7" t="s">
         <v>226</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -2047,22 +2060,22 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="B40" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="7" t="s">
         <v>226</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -2070,22 +2083,22 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="7" t="s">
         <v>226</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -2099,22 +2112,22 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="6" t="s">
         <v>246</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -2122,22 +2135,22 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="B43" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="6" t="s">
         <v>246</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -2145,22 +2158,22 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="B44" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="6" t="s">
         <v>246</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -2168,22 +2181,22 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="B45" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="6" t="s">
         <v>246</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -2197,22 +2210,22 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="C46" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="7" t="s">
         <v>268</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -2220,22 +2233,22 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="6" t="s">
+      <c r="B47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="7" t="s">
         <v>268</v>
       </c>
       <c r="G47" s="2" t="s">
@@ -2243,22 +2256,22 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="6" t="s">
+      <c r="B48" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="7" t="s">
         <v>268</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -2272,22 +2285,22 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="6" t="s">
         <v>285</v>
       </c>
       <c r="G49" s="2" t="s">
@@ -2295,22 +2308,22 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="C50" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="6" t="s">
         <v>285</v>
       </c>
       <c r="G50" s="2" t="s">
@@ -2318,22 +2331,22 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="B51" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="6" t="s">
         <v>285</v>
       </c>
       <c r="G51" s="2" t="s">
@@ -2341,22 +2354,22 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="5" t="s">
+      <c r="B52" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="6" t="s">
         <v>285</v>
       </c>
       <c r="G52" s="2" t="s">
@@ -2370,22 +2383,22 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="7" t="s">
         <v>305</v>
       </c>
       <c r="G53" s="2" t="s">
@@ -2393,22 +2406,22 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="6" t="s">
+      <c r="C54" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="7" t="s">
         <v>305</v>
       </c>
       <c r="G54" s="2" t="s">
@@ -2416,22 +2429,22 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="6" t="s">
+      <c r="B55" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="7" t="s">
         <v>305</v>
       </c>
       <c r="G55" s="2" t="s">
@@ -2439,22 +2452,22 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="7" t="s">
         <v>305</v>
       </c>
       <c r="G56" s="2" t="s">
@@ -2462,22 +2475,22 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="7" t="s">
         <v>305</v>
       </c>
       <c r="G57" s="2" t="s">
@@ -2488,6 +2501,20 @@
       </c>
       <c r="I57" s="3" t="s">
         <v>324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2497,7 +2524,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -2505,131 +2532,128 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -2637,16 +2661,13 @@
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2657,81 +2678,81 @@
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>42</v>
@@ -2743,33 +2764,30 @@
         <v>44</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -2777,16 +2795,13 @@
         <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2811,7 +2826,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>79</v>
@@ -2823,7 +2838,7 @@
         <v>87</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>88</v>
@@ -2831,7 +2846,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>92</v>
@@ -2851,7 +2866,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>112</v>
@@ -2871,7 +2886,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>136</v>
@@ -2889,27 +2904,24 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -2917,16 +2929,13 @@
         <v>150</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2951,7 +2960,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>179</v>
@@ -2963,7 +2972,7 @@
         <v>202</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>203</v>
@@ -2971,7 +2980,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>207</v>
@@ -2988,7 +2997,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>226</v>
@@ -3000,7 +3009,7 @@
         <v>241</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>242</v>
@@ -3008,7 +3017,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>246</v>
@@ -3026,27 +3035,24 @@
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>263</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -3054,16 +3060,13 @@
         <v>264</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3080,7 +3083,7 @@
         <v>279</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>280</v>
@@ -3088,27 +3091,27 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>281</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>285</v>
@@ -3128,7 +3131,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>305</v>
@@ -3140,10 +3143,33 @@
         <v>324</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/public/output/personel-29/پرسنل29_فروردین_1400.xlsx
+++ b/public/output/personel-29/پرسنل29_فروردین_1400.xlsx
@@ -1096,7 +1096,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -2503,17 +2503,17 @@
         <v>324</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="3" t="s">
+    <row r="59" spans="1:9">
+      <c r="A59" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="I59" s="3" t="s">
         <v>328</v>
       </c>
     </row>

--- a/public/output/personel-29/پرسنل29_فروردین_1400.xlsx
+++ b/public/output/personel-29/پرسنل29_فروردین_1400.xlsx
@@ -1004,7 +1004,7 @@
     <t>04:28:23</t>
   </si>
   <si>
-    <t>79:58:08</t>
+    <t>72:28:08</t>
   </si>
 </sst>
 </file>
